--- a/models/Random Forests/Meta_Only/metrics.xlsx
+++ b/models/Random Forests/Meta_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5859445304443214</v>
+        <v>0.5952648127185425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996792880354228</v>
+        <v>0.9996919041522209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7873833153282005</v>
+        <v>0.7862155176348863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5125307571718853</v>
+        <v>0.4979606510077171</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7279161311053984</v>
+        <v>0.7195268316195372</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6969529093340234</v>
+        <v>0.6735113655969635</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6141888689900394</v>
+        <v>0.6145246349251303</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7241318675405565</v>
+        <v>0.6913475498961769</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8708960539826029</v>
+        <v>0.8597520084765085</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8291304488842761</v>
+        <v>0.8418603765709256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5725753183369419</v>
+        <v>0.6358207038273824</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7059388692595306</v>
+        <v>0.7038346134116605</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5977159916710275</v>
+        <v>0.6146541965628756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996953007990512</v>
+        <v>0.9997113706491808</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7902975791972247</v>
+        <v>0.7982244339794893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5285885437735993</v>
+        <v>0.5059480041710956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7069601542416453</v>
+        <v>0.7126196979434447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6676034657522429</v>
+        <v>0.681578621031746</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6196080356215947</v>
+        <v>0.6175139507922642</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7042675632332126</v>
+        <v>0.7025437417304132</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8661339789070848</v>
+        <v>0.8791982039577904</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8326763131472666</v>
+        <v>0.839823743259403</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5034264797622107</v>
+        <v>0.5609667993835088</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6961650032994784</v>
+        <v>0.7152754665104551</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6154413326356031</v>
+        <v>0.6018005600818008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996981836673694</v>
+        <v>0.9996593077599508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8075691929643042</v>
+        <v>0.7884365204954201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5037576354266715</v>
+        <v>0.5170201978242286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7389323586118253</v>
+        <v>0.7094360539845759</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6764605978260871</v>
+        <v>0.6764403791407867</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6242744436949195</v>
+        <v>0.6084061369151842</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7018701637630427</v>
+        <v>0.7102932514406017</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8667390180185417</v>
+        <v>0.8689203628446377</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8238878014936486</v>
+        <v>0.8384742136910269</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6034079024622949</v>
+        <v>0.5100042200286228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7066083471370559</v>
+        <v>0.7076933740215754</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6092739737125016</v>
+        <v>0.6128604240244002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996349889103762</v>
+        <v>0.9996778608728891</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7954242871488998</v>
+        <v>0.791541454916162</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5313666860520642</v>
+        <v>0.5401879477696828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7090890102827764</v>
+        <v>0.7611785025706941</v>
       </c>
       <c r="G5" t="n">
-        <v>0.679701877731769</v>
+        <v>0.6882925724637681</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6170743710687043</v>
+        <v>0.6049972222210156</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7061643434152227</v>
+        <v>0.7072270784108173</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8669487698779936</v>
+        <v>0.8642391335124607</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8384643425238599</v>
+        <v>0.8290532422553643</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6011189956331877</v>
+        <v>0.5973439048108327</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7115336090031997</v>
+        <v>0.719639529602357</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6133393837348566</v>
+        <v>0.6202582988664802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999709515337887</v>
+        <v>0.9996984405566254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7958474711664284</v>
+        <v>0.8016103816073764</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5291297302375708</v>
+        <v>0.493596995444561</v>
       </c>
       <c r="F6" t="n">
-        <v>0.722323264781491</v>
+        <v>0.7497638174807197</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6773704386645962</v>
+        <v>0.6749819379744652</v>
       </c>
       <c r="H6" t="n">
-        <v>0.641847642189055</v>
+        <v>0.6178015019553044</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7070079974171504</v>
+        <v>0.7129510498111388</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8731150274726504</v>
+        <v>0.8799608363846081</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8312897667020147</v>
+        <v>0.8320230534058347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5372463395838685</v>
+        <v>0.6039606344721294</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6966651952633163</v>
+        <v>0.7001582344181899</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5978194469684861</v>
+        <v>0.5809682758983095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996922181279784</v>
+        <v>0.9996742073368028</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7916836257265452</v>
+        <v>0.800431647697879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4924990934932616</v>
+        <v>0.4968316910097049</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7115946336760925</v>
+        <v>0.6950859575835475</v>
       </c>
       <c r="G7" t="n">
-        <v>0.674226657752473</v>
+        <v>0.6909299876351507</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6042731319056258</v>
+        <v>0.6225982202233603</v>
       </c>
       <c r="I7" t="n">
-        <v>0.69167040609737</v>
+        <v>0.6888982628222436</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8660050727909738</v>
+        <v>0.8651042202223147</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8172631906996684</v>
+        <v>0.8375752323954785</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5871057484129022</v>
+        <v>0.5815314116913139</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7085318184054034</v>
+        <v>0.711830338463229</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6010878680326415</v>
+        <v>0.6103276850755059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9997067466425716</v>
+        <v>0.9996681561676598</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7965459625391801</v>
+        <v>0.8015514211375186</v>
       </c>
       <c r="E8" t="n">
-        <v>0.508802238664007</v>
+        <v>0.5027956124297408</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6847927377892031</v>
+        <v>0.7221907133676093</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6886924531285944</v>
+        <v>0.6890451568610535</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6510453701004996</v>
+        <v>0.6443439511527891</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7118513208758243</v>
+        <v>0.6959722728019594</v>
       </c>
       <c r="J8" t="n">
-        <v>0.873324965612617</v>
+        <v>0.8647398555357353</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8234305549288148</v>
+        <v>0.8346318618713479</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5800532549264247</v>
+        <v>0.5307190561814246</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7134762447146065</v>
+        <v>0.7242623126755542</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5829700537967546</v>
+        <v>0.6063148237756695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9997418833841517</v>
+        <v>0.999736774142281</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8037690955844314</v>
+        <v>0.7994840007912115</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5013180258573768</v>
+        <v>0.5520987086840627</v>
       </c>
       <c r="F9" t="n">
-        <v>0.722066998714653</v>
+        <v>0.7136648457583548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6928197607545433</v>
+        <v>0.6817772134518059</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6429539757423229</v>
+        <v>0.6280986135429649</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6988549174554703</v>
+        <v>0.6772485348958548</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8638483169928065</v>
+        <v>0.8742900849588171</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8370552334107986</v>
+        <v>0.8249263892962704</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6055064493046127</v>
+        <v>0.5580242468166305</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7073969639689306</v>
+        <v>0.7092530402791877</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5771376929797096</v>
+        <v>0.5999564283509117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996166356001926</v>
+        <v>0.9997238725929761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7978449948266942</v>
+        <v>0.7962801649371595</v>
       </c>
       <c r="E10" t="n">
-        <v>0.504124896829051</v>
+        <v>0.5402011474395358</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7265191195372751</v>
+        <v>0.7539211118251927</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6847552011444674</v>
+        <v>0.6720066461065103</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6209806363394302</v>
+        <v>0.6094186471282457</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7067735423186648</v>
+        <v>0.7011533461258697</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8744569922999087</v>
+        <v>0.8693644555914705</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8319497247354528</v>
+        <v>0.8323985102998578</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6617222762467432</v>
+        <v>0.5057727239367362</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6936375326673903</v>
+        <v>0.7226649563465928</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5772378639820108</v>
+        <v>0.5884137730201722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996416965742848</v>
+        <v>0.9997240153092295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8023164807826907</v>
+        <v>0.7924173031861478</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5006661951019907</v>
+        <v>0.5537308090388233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7050216902313624</v>
+        <v>0.718799003856041</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6774158183804924</v>
+        <v>0.6962439074361627</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6249676939308896</v>
+        <v>0.6230438810893411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6887118518013167</v>
+        <v>0.6931299851735977</v>
       </c>
       <c r="J11" t="n">
-        <v>0.86677813692661</v>
+        <v>0.8714370125970334</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8341894220572641</v>
+        <v>0.8190195533719908</v>
       </c>
       <c r="L11" t="n">
-        <v>0.49033865729698</v>
+        <v>0.6424959175810062</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7109660220812712</v>
+        <v>0.7334823262312037</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5984051462715586</v>
+        <v>0.6002208141110836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9997265556585395</v>
+        <v>0.9997183637455961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7955911833176104</v>
+        <v>0.7945503408295549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4889390648888006</v>
+        <v>0.5168913069303702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7462178663239074</v>
+        <v>0.7019762210796915</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6836171138141246</v>
+        <v>0.6663876488095238</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6089256402248459</v>
+        <v>0.6280656016269662</v>
       </c>
       <c r="I12" t="n">
-        <v>0.698898157125273</v>
+        <v>0.7023482023347499</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8800703693271994</v>
+        <v>0.8533312916988931</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8337357009092754</v>
+        <v>0.8387005454524942</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5589817804851199</v>
+        <v>0.5389630197056988</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6932338017336155</v>
+        <v>0.7053406192287077</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.591460504161202</v>
+        <v>0.6215763959896566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996962141830728</v>
+        <v>0.9995795293743159</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8024705387845774</v>
+        <v>0.7949825591126259</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5201205673373392</v>
+        <v>0.5099855502437668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7209013496143959</v>
+        <v>0.7368276028277636</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6733586021969175</v>
+        <v>0.6770154884115482</v>
       </c>
       <c r="H13" t="n">
-        <v>0.636260809773612</v>
+        <v>0.6186363559362158</v>
       </c>
       <c r="I13" t="n">
-        <v>0.702316973684337</v>
+        <v>0.7019114816697429</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8612020160022413</v>
+        <v>0.8708297381194013</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8427071816971639</v>
+        <v>0.8333549558899845</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5389699001871491</v>
+        <v>0.6068584639095813</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7027891930427962</v>
+        <v>0.7305913699957646</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5854978663029128</v>
+        <v>0.6183134487507637</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999700495670674</v>
+        <v>0.9997347190282325</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7967623094245458</v>
+        <v>0.7940743776817505</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5009880341110527</v>
+        <v>0.5181219820313671</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7318878534704372</v>
+        <v>0.728670469151671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6569500158155049</v>
+        <v>0.6775209555440533</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6331902672184291</v>
+        <v>0.6225330651259948</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6987636337081092</v>
+        <v>0.710041500474195</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8725487347082326</v>
+        <v>0.8667576460700027</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8296423394102118</v>
+        <v>0.8343491234403556</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6860310172103776</v>
+        <v>0.609359518916737</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7090917395501084</v>
+        <v>0.7122765505791175</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6207181001885185</v>
+        <v>0.5889956406455609</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9997204188596446</v>
+        <v>0.9997110281301728</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8016460431818873</v>
+        <v>0.7968673921974376</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5154269200278591</v>
+        <v>0.4904088869494864</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7400329370179949</v>
+        <v>0.6985716580976865</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6789515398550724</v>
+        <v>0.6809900326374509</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6274670434658342</v>
+        <v>0.6380126131581154</v>
       </c>
       <c r="I15" t="n">
-        <v>0.70788624315492</v>
+        <v>0.7079294828247227</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8739000135612214</v>
+        <v>0.8693801031546978</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8215804161684077</v>
+        <v>0.8250938465964215</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5695582272210195</v>
+        <v>0.694185534475799</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7039802631789084</v>
+        <v>0.7037576362320406</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5850681710198175</v>
+        <v>0.5826941730035317</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9997489335670683</v>
+        <v>0.9996357310348938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8075458940689572</v>
+        <v>0.7832427687836646</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5197649527024771</v>
+        <v>0.5528837008147303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7054803984575836</v>
+        <v>0.7401606683804627</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6761442877271682</v>
+        <v>0.6867038331032896</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6348795217094613</v>
+        <v>0.6282884320599565</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7108207754121942</v>
+        <v>0.6946625912477142</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8793852295944599</v>
+        <v>0.8771513536632435</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8392515681054127</v>
+        <v>0.8345518349089596</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5879910370261642</v>
+        <v>0.6401359124435801</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7127090281774806</v>
+        <v>0.713927567348644</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5902852738773732</v>
+        <v>0.6011853021223115</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996237999561118</v>
+        <v>0.9997052623935364</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7964879530446426</v>
+        <v>0.804595493137762</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5384813081028115</v>
+        <v>0.5287710097980373</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7397606041131106</v>
+        <v>0.6934174164524423</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6917171684495055</v>
+        <v>0.6730971072003681</v>
       </c>
       <c r="H17" t="n">
-        <v>0.608287120270663</v>
+        <v>0.6215340202997222</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6956378860221522</v>
+        <v>0.7009976833145801</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8772623768499517</v>
+        <v>0.8675854766769345</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8338703718327655</v>
+        <v>0.8251745786421785</v>
       </c>
       <c r="L17" t="n">
-        <v>0.588996734064805</v>
+        <v>0.5643577299915599</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7143587673174698</v>
+        <v>0.710360106273225</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.626583851339664</v>
+        <v>0.6181897402998343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996363589864086</v>
+        <v>0.99965123002001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8047647667447734</v>
+        <v>0.7916997923069902</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5050147098673744</v>
+        <v>0.5078673914579501</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7154442480719794</v>
+        <v>0.7034423200514139</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6727394611226133</v>
+        <v>0.6999704357890498</v>
       </c>
       <c r="H18" t="n">
-        <v>0.617160375797227</v>
+        <v>0.6381520450664777</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6959780380912663</v>
+        <v>0.696014551590211</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8671425016131892</v>
+        <v>0.8730081024572635</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8288054054511405</v>
+        <v>0.8297808882922317</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5489637994935965</v>
+        <v>0.6766942038824264</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6834621716252534</v>
+        <v>0.715952610165204</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5728002338418152</v>
+        <v>0.6017179053203392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9996884504188893</v>
+        <v>0.9996633609015466</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7997545532698337</v>
+        <v>0.7973452572958827</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4993978621193545</v>
+        <v>0.5237528059004077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7238809447300771</v>
+        <v>0.695122911311054</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6924400987750172</v>
+        <v>0.6745555483666896</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6343070255872754</v>
+        <v>0.5939052184454949</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6992392700759384</v>
+        <v>0.6746877855619861</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8724701243310666</v>
+        <v>0.8695842665987117</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8310690756074998</v>
+        <v>0.8285875346901017</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6956613977468717</v>
+        <v>0.6192330097978055</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6943680173553197</v>
+        <v>0.7015754449823974</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5931343999264318</v>
+        <v>0.5742858300180199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996712388387327</v>
+        <v>0.9997049769610298</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7947643102766198</v>
+        <v>0.7937924134992848</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5307408664108001</v>
+        <v>0.5348381992233935</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7490183161953727</v>
+        <v>0.7340271529562983</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6820683625201287</v>
+        <v>0.6645670685242697</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6197244460622214</v>
+        <v>0.6111648037376438</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6994227984522119</v>
+        <v>0.7118441142641905</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8622205978561347</v>
+        <v>0.8683987774037266</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8328737364906027</v>
+        <v>0.8242466889284988</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5567112216065465</v>
+        <v>0.6397356977725587</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6886388071028537</v>
+        <v>0.7226617622727496</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6160106104628886</v>
+        <v>0.5720426564255046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996836266095254</v>
+        <v>0.9996963568993261</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7996542253735432</v>
+        <v>0.8010645217735308</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5188207880824063</v>
+        <v>0.5098481183870625</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7035692480719794</v>
+        <v>0.7149678663239075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6769507886185876</v>
+        <v>0.6805402792155509</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6424844246739747</v>
+        <v>0.612212063335967</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7050170508431256</v>
+        <v>0.692587567537962</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8700954203308046</v>
+        <v>0.8633386535048306</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8344161063604161</v>
+        <v>0.8174874072110286</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5939610014311402</v>
+        <v>0.6493821327657701</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7151847548133096</v>
+        <v>0.7159701775713412</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_Only/metrics.xlsx
+++ b/models/Random Forests/Meta_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5952648127185425</v>
+        <v>0.5874782962828348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996919041522209</v>
+        <v>0.9996673854998916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7862155176348863</v>
+        <v>0.7983989379507623</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4979606510077171</v>
+        <v>0.5225989994650252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7195268316195372</v>
+        <v>0.7411793059125965</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6735113655969635</v>
+        <v>0.6825005930814355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6145246349251303</v>
+        <v>0.6355501848450112</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6913475498961769</v>
+        <v>0.6896833030495498</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8597520084765085</v>
+        <v>0.8690637988408881</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8418603765709256</v>
+        <v>0.8296627868279147</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6358207038273824</v>
+        <v>0.6509027191662691</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7038346134116605</v>
+        <v>0.7276754999843491</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6146541965628756</v>
+        <v>0.6131341152875182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997113706491808</v>
+        <v>0.999675234893827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7982244339794893</v>
+        <v>0.7994702116490673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5059480041710956</v>
+        <v>0.537787937209947</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7126196979434447</v>
+        <v>0.7141572943444729</v>
       </c>
       <c r="G3" t="n">
-        <v>0.681578621031746</v>
+        <v>0.6806256469979296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6175139507922642</v>
+        <v>0.6357621560951073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7025437417304132</v>
+        <v>0.7047220602069162</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8791982039577904</v>
+        <v>0.8746883526990558</v>
       </c>
       <c r="K3" t="n">
-        <v>0.839823743259403</v>
+        <v>0.8331931392567857</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5609667993835088</v>
+        <v>0.5686018402994386</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7152754665104551</v>
+        <v>0.7243776187412921</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6018005600818008</v>
+        <v>0.6052638493252962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996593077599508</v>
+        <v>0.9996407546470124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7884365204954201</v>
+        <v>0.7864917759654303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5170201978242286</v>
+        <v>0.5158733794493564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7094360539845759</v>
+        <v>0.7385218508997429</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6764403791407867</v>
+        <v>0.6803771818207959</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6084061369151842</v>
+        <v>0.6020939110824043</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7102932514406017</v>
+        <v>0.6939150254009038</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8689203628446377</v>
+        <v>0.8767765572678461</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8384742136910269</v>
+        <v>0.8312456989914486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5100042200286228</v>
+        <v>0.6233188690323291</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7076933740215754</v>
+        <v>0.7048219016365795</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6128604240244002</v>
+        <v>0.5972414110207809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996778608728891</v>
+        <v>0.9996662437698647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.791541454916162</v>
+        <v>0.8064750958583125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5401879477696828</v>
+        <v>0.5405039633949862</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7611785025706941</v>
+        <v>0.7088488110539846</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6882925724637681</v>
+        <v>0.6822921159707844</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6049972222210156</v>
+        <v>0.5927580543645445</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7072270784108173</v>
+        <v>0.7316863182958573</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8642391335124607</v>
+        <v>0.8737211842671948</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8290532422553643</v>
+        <v>0.8346040110782699</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5973439048108327</v>
+        <v>0.5845393288319695</v>
       </c>
       <c r="M5" t="n">
-        <v>0.719639529602357</v>
+        <v>0.7050403762874513</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6202582988664802</v>
+        <v>0.5843839428620223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996984405566254</v>
+        <v>0.999678660083908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8016103816073764</v>
+        <v>0.7849217157116339</v>
       </c>
       <c r="E6" t="n">
-        <v>0.493596995444561</v>
+        <v>0.5189442438180899</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7497638174807197</v>
+        <v>0.7336238753213368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6749819379744652</v>
+        <v>0.6736919858523118</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6178015019553044</v>
+        <v>0.6371204226915224</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7129510498111388</v>
+        <v>0.7175786553615749</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8799608363846081</v>
+        <v>0.8699516117735246</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8320230534058347</v>
+        <v>0.8314350138760407</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6039606344721294</v>
+        <v>0.6191550310080364</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7001582344181899</v>
+        <v>0.7007465828200988</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5809682758983095</v>
+        <v>0.6022680247592065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996742073368028</v>
+        <v>0.9996708677764741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.800431647697879</v>
+        <v>0.8046829828672286</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4968316910097049</v>
+        <v>0.5486908645084947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6950859575835475</v>
+        <v>0.7173987789203085</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6909299876351507</v>
+        <v>0.7001052270243847</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6225982202233603</v>
+        <v>0.6133861581904952</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6888982628222436</v>
+        <v>0.7021238364925517</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8651042202223147</v>
+        <v>0.8777172738666321</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8375752323954785</v>
+        <v>0.8325811268924438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5815314116913139</v>
+        <v>0.54772989982019</v>
       </c>
       <c r="M7" t="n">
-        <v>0.711830338463229</v>
+        <v>0.7123739698313336</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6103276850755059</v>
+        <v>0.5748923298570894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996681561676598</v>
+        <v>0.999684796882803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8015514211375186</v>
+        <v>0.7973019879188095</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5027956124297408</v>
+        <v>0.5150324828346058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7221907133676093</v>
+        <v>0.7218356362467866</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6890451568610535</v>
+        <v>0.6773362915516448</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6443439511527891</v>
+        <v>0.6283700931153214</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6959722728019594</v>
+        <v>0.7106122641155902</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8647398555357353</v>
+        <v>0.8680325499120011</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8346318618713479</v>
+        <v>0.8378283573249702</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5307190561814246</v>
+        <v>0.6974101867821365</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7242623126755542</v>
+        <v>0.6887652924270425</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6063148237756695</v>
+        <v>0.5921244791655264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999736774142281</v>
+        <v>0.99965673886739</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7994840007912115</v>
+        <v>0.7971712288122699</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5520987086840627</v>
+        <v>0.5092013345642673</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7136648457583548</v>
+        <v>0.7480109254498715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6817772134518059</v>
+        <v>0.6962569372555786</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6280986135429649</v>
+        <v>0.6379761263035907</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6772485348958548</v>
+        <v>0.7271644097160499</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8742900849588171</v>
+        <v>0.8623688771457653</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8249263892962704</v>
+        <v>0.8246873660341599</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5580242468166305</v>
+        <v>0.5765017797512018</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7092530402791877</v>
+        <v>0.7317495411712924</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5999564283509117</v>
+        <v>0.6015323426439453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9997238725929761</v>
+        <v>0.9996865094778434</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7962801649371595</v>
+        <v>0.801180540762606</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5402011474395358</v>
+        <v>0.5179581508349568</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7539211118251927</v>
+        <v>0.681944087403599</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6720066461065103</v>
+        <v>0.663833354899931</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6094186471282457</v>
+        <v>0.6262099844539938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7011533461258697</v>
+        <v>0.7076517880564346</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8693644555914705</v>
+        <v>0.8771163329264968</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8323985102998578</v>
+        <v>0.8307979710520973</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5057727239367362</v>
+        <v>0.5370468056218121</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7226649563465928</v>
+        <v>0.7257967457498056</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5884137730201722</v>
+        <v>0.5901670392517062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9997240153092295</v>
+        <v>0.9996563107186299</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7924173031861478</v>
+        <v>0.791755424363227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5537308090388233</v>
+        <v>0.5072283721468331</v>
       </c>
       <c r="F11" t="n">
-        <v>0.718799003856041</v>
+        <v>0.7468035025706941</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6962439074361627</v>
+        <v>0.685926536979526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6230438810893411</v>
+        <v>0.6088435448021652</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6931299851735977</v>
+        <v>0.6957046672899585</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8714370125970334</v>
+        <v>0.8714537778433484</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8190195533719908</v>
+        <v>0.8161858233117483</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6424959175810062</v>
+        <v>0.6941992954386995</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7334823262312037</v>
+        <v>0.7173688625072585</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6002208141110836</v>
+        <v>0.5926795250471296</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9997183637455961</v>
+        <v>0.9997481628993001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7945503408295549</v>
+        <v>0.8001454041264722</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5168913069303702</v>
+        <v>0.5128351260296713</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7019762210796915</v>
+        <v>0.6987074228791774</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6663876488095238</v>
+        <v>0.6649615575396826</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6280656016269662</v>
+        <v>0.613661112701378</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7023482023347499</v>
+        <v>0.6928667036285769</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8533312916988931</v>
+        <v>0.8719254401063439</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8387005454524942</v>
+        <v>0.8142725795898106</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5389630197056988</v>
+        <v>0.6079650746761587</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7053406192287077</v>
+        <v>0.6978313516234519</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6215763959896566</v>
+        <v>0.6026134231332613</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9995795293743159</v>
+        <v>0.9996398983494923</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7949825591126259</v>
+        <v>0.8052302691640546</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5099855502437668</v>
+        <v>0.5202851749849174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7368276028277636</v>
+        <v>0.6975980077120822</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6770154884115482</v>
+        <v>0.6909439160628019</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6186363559362158</v>
+        <v>0.6300510946273541</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7019114816697429</v>
+        <v>0.7163919666458796</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8708297381194013</v>
+        <v>0.8676778718121814</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8333549558899845</v>
+        <v>0.8295982716996458</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6068584639095813</v>
+        <v>0.5295734560199626</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7305913699957646</v>
+        <v>0.7104444298226842</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6183134487507637</v>
+        <v>0.5878795276745659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9997347190282325</v>
+        <v>0.9996811718899674</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7940743776817505</v>
+        <v>0.8083822768631508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5181219820313671</v>
+        <v>0.4965459569799466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.728670469151671</v>
+        <v>0.7117271850899742</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6775209555440533</v>
+        <v>0.6851883303140096</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6225330651259948</v>
+        <v>0.6059159090938707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.710041500474195</v>
+        <v>0.6940591576335793</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8667576460700027</v>
+        <v>0.8763555633048249</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8343491234403556</v>
+        <v>0.8283841181381286</v>
       </c>
       <c r="L14" t="n">
-        <v>0.609359518916737</v>
+        <v>0.5985227606326373</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7122765505791175</v>
+        <v>0.7341863001062349</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5889956406455609</v>
+        <v>0.6041800319233489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9997110281301728</v>
+        <v>0.9996632467285439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7968673921974376</v>
+        <v>0.7875221577249627</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4904088869494864</v>
+        <v>0.4708415410692198</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6985716580976865</v>
+        <v>0.7103446336760926</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6809900326374509</v>
+        <v>0.6713214573268921</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6380126131581154</v>
+        <v>0.6397969940913014</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7079294828247227</v>
+        <v>0.719110780994916</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8693801031546978</v>
+        <v>0.8643266853543278</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8250938465964215</v>
+        <v>0.8222072352834999</v>
       </c>
       <c r="L15" t="n">
-        <v>0.694185534475799</v>
+        <v>0.554408553814539</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7037576362320406</v>
+        <v>0.7179549750574774</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5826941730035317</v>
+        <v>0.5999126377488128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996357310348938</v>
+        <v>0.9996598786249642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7832427687836646</v>
+        <v>0.7955921342929309</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5528837008147303</v>
+        <v>0.4953494457303338</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7401606683804627</v>
+        <v>0.7257463046272493</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6867038331032896</v>
+        <v>0.6856160678341385</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6282884320599565</v>
+        <v>0.6491319820745297</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6946625912477142</v>
+        <v>0.6989413967950756</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8771513536632435</v>
+        <v>0.8605671720084467</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8345518349089596</v>
+        <v>0.8443962089077411</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6401359124435801</v>
+        <v>0.543286255550255</v>
       </c>
       <c r="M16" t="n">
-        <v>0.713927567348644</v>
+        <v>0.7133465653165743</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6011853021223115</v>
+        <v>0.5838305391279978</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9997052623935364</v>
+        <v>0.9997216176761731</v>
       </c>
       <c r="D17" t="n">
-        <v>0.804595493137762</v>
+        <v>0.8033991661848391</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5287710097980373</v>
+        <v>0.5011751588424977</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6934174164524423</v>
+        <v>0.7300353470437018</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6730971072003681</v>
+        <v>0.6955012077294687</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6215340202997222</v>
+        <v>0.6017077585386842</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7009976833145801</v>
+        <v>0.7147200327468433</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8675854766769345</v>
+        <v>0.8664525185870696</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8251745786421785</v>
+        <v>0.8264342100809999</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5643577299915599</v>
+        <v>0.5697669351583429</v>
       </c>
       <c r="M17" t="n">
-        <v>0.710360106273225</v>
+        <v>0.7218654796636512</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6181897402998343</v>
+        <v>0.5896869847761972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.99965123002001</v>
+        <v>0.9996843972772936</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7916997923069902</v>
+        <v>0.7975197612671556</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5078673914579501</v>
+        <v>0.505468157349382</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7034423200514139</v>
+        <v>0.6647373071979434</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6999704357890498</v>
+        <v>0.6872780437658155</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6381520450664777</v>
+        <v>0.6101501216880035</v>
       </c>
       <c r="I18" t="n">
-        <v>0.696014551590211</v>
+        <v>0.6850811608602196</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8730081024572635</v>
+        <v>0.8629556607667902</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8297808882922317</v>
+        <v>0.8284814196430587</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6766942038824264</v>
+        <v>0.5688380701625628</v>
       </c>
       <c r="M18" t="n">
-        <v>0.715952610165204</v>
+        <v>0.683867819003334</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6017179053203392</v>
+        <v>0.5861738837228142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9996633609015466</v>
+        <v>0.9996709248629753</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7973452572958827</v>
+        <v>0.7962240573932626</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5237528059004077</v>
+        <v>0.5265309481788727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.695122911311054</v>
+        <v>0.7088070372750643</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6745555483666896</v>
+        <v>0.6687503145128826</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5939052184454949</v>
+        <v>0.6236420048831574</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6746877855619861</v>
+        <v>0.7027013263048052</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8695842665987117</v>
+        <v>0.8650468458238143</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8285875346901017</v>
+        <v>0.8436770238713026</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6192330097978055</v>
+        <v>0.5065960882169461</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7015754449823974</v>
+        <v>0.7216026073863596</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5742858300180199</v>
+        <v>0.5802282147228384</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9997049769610298</v>
+        <v>0.9997188204376068</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7937924134992848</v>
+        <v>0.7882862663948147</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5348381992233935</v>
+        <v>0.4941614754435671</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7340271529562983</v>
+        <v>0.7394938946015424</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6645670685242697</v>
+        <v>0.6693687816310099</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6111648037376438</v>
+        <v>0.6174214305540051</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7118441142641905</v>
+        <v>0.6787551971680899</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8683987774037266</v>
+        <v>0.8719045766887075</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8242466889284988</v>
+        <v>0.830549781706189</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6397356977725587</v>
+        <v>0.6066749844042421</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7226617622727496</v>
+        <v>0.7052160503488248</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5720426564255046</v>
+        <v>0.6015000470748973</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996963568993261</v>
+        <v>0.9996825419659997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8010645217735308</v>
+        <v>0.7943981847783086</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5098481183870625</v>
+        <v>0.5050954607888278</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7149678663239075</v>
+        <v>0.7160242609254498</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6805402792155509</v>
+        <v>0.6828825015815505</v>
       </c>
       <c r="H21" t="n">
-        <v>0.612212063335967</v>
+        <v>0.6084365426272881</v>
       </c>
       <c r="I21" t="n">
-        <v>0.692587567537962</v>
+        <v>0.7133517374179768</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8633386535048306</v>
+        <v>0.8648128774974628</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8174874072110286</v>
+        <v>0.8261119869813406</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6493821327657701</v>
+        <v>0.5459318006678654</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7159701775713412</v>
+        <v>0.7216891667875092</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_Only/metrics.xlsx
+++ b/models/Random Forests/Meta_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5874782962828348</v>
+        <v>0.6014294347290128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996673854998916</v>
+        <v>0.9996544839505869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7983989379507623</v>
+        <v>0.7890760513983142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5225989994650252</v>
+        <v>0.524599137673333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7411793059125965</v>
+        <v>0.7097461439588688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6825005930814355</v>
+        <v>0.6986463365539451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6355501848450112</v>
+        <v>0.6233518475162225</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6896833030495498</v>
+        <v>0.6973040546318813</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8690637988408881</v>
+        <v>0.8702109142498632</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8296627868279147</v>
+        <v>0.8269260057309176</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6509027191662691</v>
+        <v>0.5561206469487359</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7276754999843491</v>
+        <v>0.7179824440925285</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6131341152875182</v>
+        <v>0.5801121696272764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999675234893827</v>
+        <v>0.9996861669588354</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7994702116490673</v>
+        <v>0.7960704748790359</v>
       </c>
       <c r="E3" t="n">
-        <v>0.537787937209947</v>
+        <v>0.4935845722258759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7141572943444729</v>
+        <v>0.7342167416452441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6806256469979296</v>
+        <v>0.6963535376409017</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6357621560951073</v>
+        <v>0.6325556565700881</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7047220602069162</v>
+        <v>0.7011139499822717</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8746883526990558</v>
+        <v>0.8692575305760837</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8331931392567857</v>
+        <v>0.8431418655941879</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5686018402994386</v>
+        <v>0.5352624674323877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7243776187412921</v>
+        <v>0.7132558536194287</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6052638493252962</v>
+        <v>0.5822398455067559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996407546470124</v>
+        <v>0.9996811433467166</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7864917759654303</v>
+        <v>0.7955612275950215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5158733794493564</v>
+        <v>0.5186297810951223</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7385218508997429</v>
+        <v>0.7060563946015423</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6803771818207959</v>
+        <v>0.6903971129514608</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6020939110824043</v>
+        <v>0.6280360646494938</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6939150254009038</v>
+        <v>0.7176286212022358</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8767765572678461</v>
+        <v>0.8689121665019945</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8312456989914486</v>
+        <v>0.8374426767220956</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6233188690323291</v>
+        <v>0.5756646545080915</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7048219016365795</v>
+        <v>0.7248474670036201</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5972414110207809</v>
+        <v>0.6024891672998057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996662437698647</v>
+        <v>0.9996954435153046</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8064750958583125</v>
+        <v>0.8026797533550409</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5405039633949862</v>
+        <v>0.5546477978680204</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7088488110539846</v>
+        <v>0.6989532455012852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6822921159707844</v>
+        <v>0.6837595432194616</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5927580543645445</v>
+        <v>0.6130642920095093</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7316863182958573</v>
+        <v>0.6989663797154061</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8737211842671948</v>
+        <v>0.8729563164742017</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8346040110782699</v>
+        <v>0.8331102919609216</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5845393288319695</v>
+        <v>0.5365777861362887</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7050403762874513</v>
+        <v>0.6956105120803067</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5843839428620223</v>
+        <v>0.5892085724482669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999678660083908</v>
+        <v>0.9996865094778434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7849217157116339</v>
+        <v>0.7898249444630413</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5189442438180899</v>
+        <v>0.5204684174605233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7336238753213368</v>
+        <v>0.7145766388174808</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6736919858523118</v>
+        <v>0.6850333203933747</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6371204226915224</v>
+        <v>0.639333524165374</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7175786553615749</v>
+        <v>0.6908070540236435</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8699516117735246</v>
+        <v>0.8662099813570461</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8314350138760407</v>
+        <v>0.8374437343471491</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6191550310080364</v>
+        <v>0.5915402187075705</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7007465828200988</v>
+        <v>0.7144504372367684</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6022680247592065</v>
+        <v>0.5996646734644278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996708677764741</v>
+        <v>0.9997122840332023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8046829828672286</v>
+        <v>0.8013284174249109</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5486908645084947</v>
+        <v>0.5158811439610346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7173987789203085</v>
+        <v>0.6887700835475578</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7001052270243847</v>
+        <v>0.6877439721359559</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6133861581904952</v>
+        <v>0.6096922985371813</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7021238364925517</v>
+        <v>0.7173105694087984</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8777172738666321</v>
+        <v>0.8731951280939331</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8325811268924438</v>
+        <v>0.8262998916991946</v>
       </c>
       <c r="L7" t="n">
-        <v>0.54772989982019</v>
+        <v>0.5709928076033907</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7123739698313336</v>
+        <v>0.7033634875197953</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5748923298570894</v>
+        <v>0.6067614879170781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.999684796882803</v>
+        <v>0.9997094867946363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7973019879188095</v>
+        <v>0.8000645712242476</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5150324828346058</v>
+        <v>0.5164231068761739</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7218356362467866</v>
+        <v>0.7295597686375321</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6773362915516448</v>
+        <v>0.6845390858638141</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6283700931153214</v>
+        <v>0.6202852142668814</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7106122641155902</v>
+        <v>0.7134593561517079</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8680325499120011</v>
+        <v>0.8771006853632695</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8378283573249702</v>
+        <v>0.8288121037431466</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6974101867821365</v>
+        <v>0.5298119793769036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6887652924270425</v>
+        <v>0.720680478267841</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5921244791655264</v>
+        <v>0.6067160551674005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.99965673886739</v>
+        <v>0.9996809150007113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7971712288122699</v>
+        <v>0.7811064027266365</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5092013345642673</v>
+        <v>0.5286320250389972</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7480109254498715</v>
+        <v>0.6677602827763496</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6962569372555786</v>
+        <v>0.6854444336611457</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6379761263035907</v>
+        <v>0.6089877547510012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7271644097160499</v>
+        <v>0.7001871797261681</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8623688771457653</v>
+        <v>0.8567294208464289</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8246873660341599</v>
+        <v>0.8288843747884751</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5765017797512018</v>
+        <v>0.6681532329088841</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7317495411712924</v>
+        <v>0.7123704563501064</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6015323426439453</v>
+        <v>0.5852389543680031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996865094778434</v>
+        <v>0.9996990970513908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.801180540762606</v>
+        <v>0.7943216312650254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5179581508349568</v>
+        <v>0.4992868296023561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.681944087403599</v>
+        <v>0.6995637853470437</v>
       </c>
       <c r="G10" t="n">
-        <v>0.663833354899931</v>
+        <v>0.6900053197607544</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6262099844539938</v>
+        <v>0.6232502055643321</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7076517880564346</v>
+        <v>0.6802695464927343</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8771163329264968</v>
+        <v>0.8698949824970829</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8307979710520973</v>
+        <v>0.8343907233591301</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5370468056218121</v>
+        <v>0.5912638527026531</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7257967457498056</v>
+        <v>0.7157459535875518</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5901670392517062</v>
+        <v>0.6288861422450128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996563107186299</v>
+        <v>0.9997119986006957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.791755424363227</v>
+        <v>0.7970285825142267</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5072283721468331</v>
+        <v>0.5369819808977484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7468035025706941</v>
+        <v>0.7465528598971722</v>
       </c>
       <c r="G11" t="n">
-        <v>0.685926536979526</v>
+        <v>0.6755170591787439</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6088435448021652</v>
+        <v>0.6416434895506427</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6957046672899585</v>
+        <v>0.7120458993899363</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8714537778433484</v>
+        <v>0.8570919227278619</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8161858233117483</v>
+        <v>0.8268586702691727</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6941992954386995</v>
+        <v>0.5291583336391324</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7173688625072585</v>
+        <v>0.7080367369597144</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5926795250471296</v>
+        <v>0.6048522176655668</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9997481628993001</v>
+        <v>0.9996938165500161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8001454041264722</v>
+        <v>0.8024786220747999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5128351260296713</v>
+        <v>0.5372630562204997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6987074228791774</v>
+        <v>0.7094657776349613</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6649615575396826</v>
+        <v>0.6964667622785828</v>
       </c>
       <c r="H12" t="n">
-        <v>0.613661112701378</v>
+        <v>0.6022906794764483</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6928667036285769</v>
+        <v>0.7099040944123778</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8719254401063439</v>
+        <v>0.8732368549292059</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8142725795898106</v>
+        <v>0.8190477567067529</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6079650746761587</v>
+        <v>0.5448756467652562</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6978313516234519</v>
+        <v>0.7110698294811738</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6026134231332613</v>
+        <v>0.5907209903682571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996398983494923</v>
+        <v>0.9997110852166741</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8052302691640546</v>
+        <v>0.7921819367943763</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5202851749849174</v>
+        <v>0.5214327698109573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6975980077120822</v>
+        <v>0.7017159383033418</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6909439160628019</v>
+        <v>0.6847911454738901</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6300510946273541</v>
+        <v>0.6075365335490112</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7163919666458796</v>
+        <v>0.7026657736874118</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8676778718121814</v>
+        <v>0.8736023372988728</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8295982716996458</v>
+        <v>0.8403589015365177</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5295734560199626</v>
+        <v>0.5878167314960919</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7104444298226842</v>
+        <v>0.7233660555551652</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5878795276745659</v>
+        <v>0.5894565367326519</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996811718899674</v>
+        <v>0.999679887443687</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8083822768631508</v>
+        <v>0.7944714098779708</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4965459569799466</v>
+        <v>0.5176188416746188</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7117271850899742</v>
+        <v>0.7494738110539846</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6851883303140096</v>
+        <v>0.6821276706636762</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6059159090938707</v>
+        <v>0.6226399194856743</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6940591576335793</v>
+        <v>0.6964805791425286</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8763555633048249</v>
+        <v>0.8725401658045604</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8283841181381286</v>
+        <v>0.8291840352203245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5985227606326373</v>
+        <v>0.6150003669590106</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7341863001062349</v>
+        <v>0.7325653076308341</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6041800319233489</v>
+        <v>0.5944136328902454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996632467285439</v>
+        <v>0.9997244434579897</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7875221577249627</v>
+        <v>0.7927434877210067</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4708415410692198</v>
+        <v>0.5191453446705556</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7103446336760926</v>
+        <v>0.7134366966580978</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6713214573268921</v>
+        <v>0.6879600874166092</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6397969940913014</v>
+        <v>0.6317008216926512</v>
       </c>
       <c r="I15" t="n">
-        <v>0.719110780994916</v>
+        <v>0.7209820978158201</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8643266853543278</v>
+        <v>0.8629914266255956</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8222072352834999</v>
+        <v>0.8392205444371742</v>
       </c>
       <c r="L15" t="n">
-        <v>0.554408553814539</v>
+        <v>0.6653494367179186</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7179549750574774</v>
+        <v>0.7234919020645855</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5999126377488128</v>
+        <v>0.5876655011068075</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996598786249642</v>
+        <v>0.9996405833875085</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7955921342929309</v>
+        <v>0.7977042504792915</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4953494457303338</v>
+        <v>0.5364229360569169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7257463046272493</v>
+        <v>0.7243043059125964</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6856160678341385</v>
+        <v>0.6878998806648262</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6491319820745297</v>
+        <v>0.6096345276841836</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6989413967950756</v>
+        <v>0.7105012822964299</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8605671720084467</v>
+        <v>0.8711777101206949</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8443962089077411</v>
+        <v>0.8395688556214886</v>
       </c>
       <c r="L16" t="n">
-        <v>0.543286255550255</v>
+        <v>0.6148008329969542</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7133465653165743</v>
+        <v>0.7023167895213935</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5838305391279978</v>
+        <v>0.5955828419662856</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9997216176761731</v>
+        <v>0.9996776610701344</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8033991661848391</v>
+        <v>0.7875806427071605</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5011751588424977</v>
+        <v>0.4959954531019613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7300353470437018</v>
+        <v>0.7018332262210797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6955012077294687</v>
+        <v>0.6844056425408327</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6017077585386842</v>
+        <v>0.6117507652466184</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7147200327468433</v>
+        <v>0.7024466926937449</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8664525185870696</v>
+        <v>0.8746347039108477</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8264342100809999</v>
+        <v>0.8239836928318404</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5697669351583429</v>
+        <v>0.5150946295548786</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7218654796636512</v>
+        <v>0.7149560591261397</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5896869847761972</v>
+        <v>0.5863276982126866</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996843972772936</v>
+        <v>0.999674464226059</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7975197612671556</v>
+        <v>0.7949511769270564</v>
       </c>
       <c r="E18" t="n">
-        <v>0.505468157349382</v>
+        <v>0.5309574962866223</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6647373071979434</v>
+        <v>0.7502779562982005</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6872780437658155</v>
+        <v>0.684279388083736</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6101501216880035</v>
+        <v>0.6158351211168105</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6850811608602196</v>
+        <v>0.7191506575792896</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8629556607667902</v>
+        <v>0.858840724199031</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8284814196430587</v>
+        <v>0.8360596556936893</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5688380701625628</v>
+        <v>0.5313715551722874</v>
       </c>
       <c r="M18" t="n">
-        <v>0.683867819003334</v>
+        <v>0.7180795439373604</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5861738837228142</v>
+        <v>0.5709692392915557</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9996709248629753</v>
+        <v>0.9997365172530248</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7962240573932626</v>
+        <v>0.7828162563525152</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5265309481788727</v>
+        <v>0.5005198340568564</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7088070372750643</v>
+        <v>0.7120702120822623</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6687503145128826</v>
+        <v>0.6749716039797562</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6236420048831574</v>
+        <v>0.6195989139079637</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7027013263048052</v>
+        <v>0.7130327247429882</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8650468458238143</v>
+        <v>0.8721445059915266</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8436770238713026</v>
+        <v>0.8352604436948625</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5065960882169461</v>
+        <v>0.7585375307328173</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7216026073863596</v>
+        <v>0.712052326595328</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5802282147228384</v>
+        <v>0.5705285963579356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9997188204376068</v>
+        <v>0.9996931315119999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7882862663948147</v>
+        <v>0.7847424568637594</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4941614754435671</v>
+        <v>0.5312486654745554</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7394938946015424</v>
+        <v>0.7465070694087403</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6693687816310099</v>
+        <v>0.6755929915746491</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6174214305540051</v>
+        <v>0.6228180100851405</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6787551971680899</v>
+        <v>0.6969163389259843</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8719045766887075</v>
+        <v>0.8715163680962579</v>
       </c>
       <c r="K20" t="n">
-        <v>0.830549781706189</v>
+        <v>0.8375780527289547</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6066749844042421</v>
+        <v>0.6043447946864334</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7052160503488248</v>
+        <v>0.7209209920282305</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6015000470748973</v>
+        <v>0.6100446883094419</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996825419659997</v>
+        <v>0.9996706965169699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7943981847783086</v>
+        <v>0.7996123824594504</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5050954607888278</v>
+        <v>0.5473802149372122</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7160242609254498</v>
+        <v>0.7336744858611826</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6828825015815505</v>
+        <v>0.6866696859903383</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6084365426272881</v>
+        <v>0.6277406948747698</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7133517374179768</v>
+        <v>0.7116634685325705</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8648128774974628</v>
+        <v>0.8736533781598764</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8261119869813406</v>
+        <v>0.8278031294420252</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5459318006678654</v>
+        <v>0.5910161553704451</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7216891667875092</v>
+        <v>0.7084155541175124</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_Only/metrics.xlsx
+++ b/models/Random Forests/Meta_Only/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6014294347290128</v>
+        <v>0.5999033322458668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996544839505869</v>
+        <v>0.9996533422205599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7890760513983142</v>
+        <v>0.7890708210340526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.524599137673333</v>
+        <v>0.5032591537769302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7097461439588688</v>
+        <v>0.7163255141388174</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6986463365539451</v>
+        <v>0.6811724501092707</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6233518475162225</v>
+        <v>0.6153395080095162</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6973040546318813</v>
+        <v>0.6925822826894306</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8702109142498632</v>
+        <v>0.8801854906852291</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8269260057309176</v>
+        <v>0.832609330227206</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5561206469487359</v>
+        <v>0.614276769659829</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7179824440925285</v>
+        <v>0.7130737914103689</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5801121696272764</v>
+        <v>0.6025280314591686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996861669588354</v>
+        <v>0.9997261845962809</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7960704748790359</v>
+        <v>0.8039783101548948</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4935845722258759</v>
+        <v>0.5495581604629513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7342167416452441</v>
+        <v>0.7422397172236503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6963535376409017</v>
+        <v>0.6752304031515988</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6325556565700881</v>
+        <v>0.6216317529457706</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7011139499822717</v>
+        <v>0.7072453351602895</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8692575305760837</v>
+        <v>0.8723821999281702</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8431418655941879</v>
+        <v>0.8294939193610252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5352624674323877</v>
+        <v>0.5576515540714102</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7132558536194287</v>
+        <v>0.6977425563706122</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5822398455067559</v>
+        <v>0.6001398014972007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996811433467166</v>
+        <v>0.9996862811318381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7955612275950215</v>
+        <v>0.7911582118620857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5186297810951223</v>
+        <v>0.5003994841258441</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7060563946015423</v>
+        <v>0.6951807519280206</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6903971129514608</v>
+        <v>0.6834517698987808</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6280360646494938</v>
+        <v>0.6336906583661968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7176286212022358</v>
+        <v>0.7061230255085226</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8689121665019945</v>
+        <v>0.8712067698809741</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8374426767220956</v>
+        <v>0.8306960865052684</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5756646545080915</v>
+        <v>0.5315756761219772</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7248474670036201</v>
+        <v>0.7142195056979084</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6024891672998057</v>
+        <v>0.5936576976215134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996954435153046</v>
+        <v>0.9997119415141944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8026797533550409</v>
+        <v>0.8036083807553025</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5546477978680204</v>
+        <v>0.5222045622717719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6989532455012852</v>
+        <v>0.7548979755784061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6837595432194616</v>
+        <v>0.6837559487865195</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6130642920095093</v>
+        <v>0.6185290672092204</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6989663797154061</v>
+        <v>0.7038899367836027</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8729563164742017</v>
+        <v>0.8583917881588182</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8331102919609216</v>
+        <v>0.8265202302520249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5365777861362887</v>
+        <v>0.6429672305603464</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6956105120803067</v>
+        <v>0.7008983013276489</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5892085724482669</v>
+        <v>0.5831589007683061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996865094778434</v>
+        <v>0.9996790596894175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7898249444630413</v>
+        <v>0.8115490246797114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5204684174605233</v>
+        <v>0.5234166025447411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7145766388174808</v>
+        <v>0.7065721401028278</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6850333203933747</v>
+        <v>0.6744369320795951</v>
       </c>
       <c r="H6" t="n">
-        <v>0.639333524165374</v>
+        <v>0.6073740801729129</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6908070540236435</v>
+        <v>0.7275968064140765</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8662099813570461</v>
+        <v>0.8727979780367823</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8374437343471491</v>
+        <v>0.8326974656483384</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5915402187075705</v>
+        <v>0.5624701845803823</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7144504372367684</v>
+        <v>0.7233248520025886</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5996646734644278</v>
+        <v>0.5851376886006494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9997122840332023</v>
+        <v>0.9997336058414562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8013284174249109</v>
+        <v>0.7935394540640881</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5158811439610346</v>
+        <v>0.5044494534172004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6887700835475578</v>
+        <v>0.7043195694087403</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6877439721359559</v>
+        <v>0.714174736168622</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6096922985371813</v>
+        <v>0.6336819710198814</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7173105694087984</v>
+        <v>0.6946741218263284</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8731951280939331</v>
+        <v>0.8717991419174375</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8262998916991946</v>
+        <v>0.8352953453216309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5709928076033907</v>
+        <v>0.5951180690616857</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7033634875197953</v>
+        <v>0.6899630701182254</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6067614879170781</v>
+        <v>0.5927775065193259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9997094867946363</v>
+        <v>0.9996859100695792</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8000645712242476</v>
+        <v>0.7960333868415446</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5164231068761739</v>
+        <v>0.5673117164151871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7295597686375321</v>
+        <v>0.7014861825192802</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6845390858638141</v>
+        <v>0.6801956629572119</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6202852142668814</v>
+        <v>0.6045237618468257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7134593561517079</v>
+        <v>0.7125494013227496</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8771006853632695</v>
+        <v>0.87018856058811</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8288121037431466</v>
+        <v>0.8362641298707159</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5298119793769036</v>
+        <v>0.5482528164104069</v>
       </c>
       <c r="M8" t="n">
-        <v>0.720680478267841</v>
+        <v>0.6978706387317227</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6067160551674005</v>
+        <v>0.6207295952215695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996809150007113</v>
+        <v>0.9996369298514221</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7811064027266365</v>
+        <v>0.8053467636407901</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5286320250389972</v>
+        <v>0.5243693081276579</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6677602827763496</v>
+        <v>0.7323208547557841</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6854444336611457</v>
+        <v>0.6905894151138716</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6089877547510012</v>
+        <v>0.5981420372435224</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7001871797261681</v>
+        <v>0.6952746727958098</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8567294208464289</v>
+        <v>0.8664052033363585</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8288843747884751</v>
+        <v>0.8329273228266512</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6681532329088841</v>
+        <v>0.5304174617445232</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7123704563501064</v>
+        <v>0.7225454979848589</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5852389543680031</v>
+        <v>0.6223815956857498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996990970513908</v>
+        <v>0.999736602882777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7943216312650254</v>
+        <v>0.8017820326526885</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4992868296023561</v>
+        <v>0.5495364198302523</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6995637853470437</v>
+        <v>0.701157615681234</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6900053197607544</v>
+        <v>0.6877722782953761</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6232502055643321</v>
+        <v>0.6200180783676823</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6802695464927343</v>
+        <v>0.6882756115770853</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8698949824970829</v>
+        <v>0.8643706475557761</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8343907233591301</v>
+        <v>0.8480598220933644</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5912638527026531</v>
+        <v>0.5596377197167075</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7157459535875518</v>
+        <v>0.7264413098513541</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6288861422450128</v>
+        <v>0.5930982726797003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9997119986006957</v>
+        <v>0.9996897348651697</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7970285825142267</v>
+        <v>0.8004397309881014</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5369819808977484</v>
+        <v>0.5257529441087156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7465528598971722</v>
+        <v>0.7111343187660669</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6755170591787439</v>
+        <v>0.6764507131354958</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6416434895506427</v>
+        <v>0.6313533278400347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7120458993899363</v>
+        <v>0.7040148513852549</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8570919227278619</v>
+        <v>0.8683272456861156</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8268586702691727</v>
+        <v>0.8269799446086508</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5291583336391324</v>
+        <v>0.5910207423580786</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7080367369597144</v>
+        <v>0.7025694407623871</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6048522176655668</v>
+        <v>0.5944771292632889</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996938165500161</v>
+        <v>0.9996860527858327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8024786220747999</v>
+        <v>0.7947219918748669</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5372630562204997</v>
+        <v>0.4856787464351185</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7094657776349613</v>
+        <v>0.7042368251928022</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6964667622785828</v>
+        <v>0.6870044175580861</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6022906794764483</v>
+        <v>0.6162482044341084</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7099040944123778</v>
+        <v>0.7122236624769027</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8732368549292059</v>
+        <v>0.8588176254152193</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8190477567067529</v>
+        <v>0.8322589037927846</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5448756467652562</v>
+        <v>0.6275641260871161</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7110698294811738</v>
+        <v>0.700959308138053</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5907209903682571</v>
+        <v>0.6172121151079768</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9997110852166741</v>
+        <v>0.9996943017852776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7921819367943763</v>
+        <v>0.7839208141870301</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5214327698109573</v>
+        <v>0.5364143950940709</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7017159383033418</v>
+        <v>0.7083346722365038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6847911454738901</v>
+        <v>0.6915019517770877</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6075365335490112</v>
+        <v>0.6088835065952161</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7026657736874118</v>
+        <v>0.7127295666135941</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8736023372988728</v>
+        <v>0.869442693407607</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8403589015365177</v>
+        <v>0.8321954462895693</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5878167314960919</v>
+        <v>0.556601133903343</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7233660555551652</v>
+        <v>0.7232347791202114</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5894565367326519</v>
+        <v>0.5944782240283413</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999679887443687</v>
+        <v>0.9997524729301519</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7944714098779708</v>
+        <v>0.8008334347707009</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5176188416746188</v>
+        <v>0.5585991578610634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7494738110539846</v>
+        <v>0.7064966259640102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6821276706636762</v>
+        <v>0.6844281077467219</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6226399194856743</v>
+        <v>0.624802199983581</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6964805791425286</v>
+        <v>0.7037592568926436</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8725401658045604</v>
+        <v>0.8732200896828909</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8291840352203245</v>
+        <v>0.8318474876469393</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6150003669590106</v>
+        <v>0.5398964716891123</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7325653076308341</v>
+        <v>0.6906798202886293</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5944136328902454</v>
+        <v>0.6023254999244612</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9997244434579897</v>
+        <v>0.9996603353169751</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7927434877210067</v>
+        <v>0.8001163993792032</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5191453446705556</v>
+        <v>0.4882022127305381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7134366966580978</v>
+        <v>0.6845694087403598</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879600874166092</v>
+        <v>0.6868709742351046</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6317008216926512</v>
+        <v>0.631966654489903</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7209820978158201</v>
+        <v>0.6811795013216927</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8629914266255956</v>
+        <v>0.8671931699131635</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8392205444371742</v>
+        <v>0.8290172830035424</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6653494367179186</v>
+        <v>0.559908351987083</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7234919020645855</v>
+        <v>0.7269009370773842</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5876655011068075</v>
+        <v>0.595963820204546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996405833875085</v>
+        <v>0.9996689553786788</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7977042504792915</v>
+        <v>0.7986433386080765</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5364229360569169</v>
+        <v>0.4978208897975093</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7243043059125964</v>
+        <v>0.6866910347043701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6878998806648262</v>
+        <v>0.6778219893029676</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6096345276841836</v>
+        <v>0.6221816619675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7105012822964299</v>
+        <v>0.6986752326054015</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8711777101206949</v>
+        <v>0.86740552969982</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8395688556214886</v>
+        <v>0.829385689063875</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6148008329969542</v>
+        <v>0.6493809860188615</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7023167895213935</v>
+        <v>0.6978211305871538</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5955828419662856</v>
+        <v>0.5950650180964663</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996776610701344</v>
+        <v>0.9996850823153097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7875806427071605</v>
+        <v>0.8067570600407779</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4959954531019613</v>
+        <v>0.5189652079996211</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7018332262210797</v>
+        <v>0.6970742287917737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6844056425408327</v>
+        <v>0.6608284089602025</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6117507652466184</v>
+        <v>0.6224318575414202</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7024466926937449</v>
+        <v>0.7229192350229795</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8746347039108477</v>
+        <v>0.8713442449007572</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8239836928318404</v>
+        <v>0.8277988989418107</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5150946295548786</v>
+        <v>0.5522251477010017</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7149560591261397</v>
+        <v>0.7152419287351022</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5863276982126866</v>
+        <v>0.5840604397890169</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999674464226059</v>
+        <v>0.9997430251141787</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7949511769270564</v>
+        <v>0.7953058907215239</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5309574962866223</v>
+        <v>0.5152413481987498</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7502779562982005</v>
+        <v>0.6799453727506426</v>
       </c>
       <c r="G18" t="n">
-        <v>0.684279388083736</v>
+        <v>0.6897887551759834</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6158351211168105</v>
+        <v>0.6246927394200067</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7191506575792896</v>
+        <v>0.7141973131830065</v>
       </c>
       <c r="J18" t="n">
-        <v>0.858840724199031</v>
+        <v>0.8645889683189002</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8360596556936893</v>
+        <v>0.8258398248008844</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5313715551722874</v>
+        <v>0.5563213276577007</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7180795439373604</v>
+        <v>0.7192013026710762</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5709692392915557</v>
+        <v>0.5891987195627947</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9997365172530248</v>
+        <v>0.9995970263869793</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7828162563525152</v>
+        <v>0.7831267497945893</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5005198340568564</v>
+        <v>0.5156179270151431</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7120702120822623</v>
+        <v>0.7185001606683805</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6749716039797562</v>
+        <v>0.6803313528007822</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6195989139079637</v>
+        <v>0.6163624430381562</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7130327247429882</v>
+        <v>0.7229336482462471</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8721445059915266</v>
+        <v>0.8751700741098398</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8352604436948625</v>
+        <v>0.8277012448951965</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7585375307328173</v>
+        <v>0.582846730395215</v>
       </c>
       <c r="M19" t="n">
-        <v>0.712052326595328</v>
+        <v>0.7076649467643712</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5705285963579356</v>
+        <v>0.6128379813408246</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996931315119999</v>
+        <v>0.9997069464453263</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7847424568637594</v>
+        <v>0.8094592564133776</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5312486654745554</v>
+        <v>0.5034641368852351</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7465070694087403</v>
+        <v>0.6868525064267352</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6755929915746491</v>
+        <v>0.6851198114360477</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6228180100851405</v>
+        <v>0.6246171595070625</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6969163389259843</v>
+        <v>0.6854054583837397</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8715163680962579</v>
+        <v>0.8705242380754391</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8375780527289547</v>
+        <v>0.8355068703323482</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6043447946864334</v>
+        <v>0.6610571630398884</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7209209920282305</v>
+        <v>0.7152042386637529</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6100446883094419</v>
+        <v>0.5762651652328894</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996706965169699</v>
+        <v>0.9996693549841882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7996123824594504</v>
+        <v>0.7943392243084508</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5473802149372122</v>
+        <v>0.5414341518940361</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7336744858611826</v>
+        <v>0.7214532455012852</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6866696859903383</v>
+        <v>0.6963050127961812</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6277406948747698</v>
+        <v>0.6258038510137481</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7116634685325705</v>
+        <v>0.7119209847882841</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8736533781598764</v>
+        <v>0.8758209382278911</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8278031294420252</v>
+        <v>0.8381819566345524</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5910161553704451</v>
+        <v>0.6206503889765513</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7084155541175124</v>
+        <v>0.7025202520252025</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_Only/metrics.xlsx
+++ b/models/Random Forests/Meta_Only/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5999033322458668</v>
+        <v>0.5183978885597562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996533422205599</v>
+        <v>0.5120198883795595</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7890708210340526</v>
+        <v>0.530424046446682</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5032591537769302</v>
+        <v>0.6029436977540407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7163255141388174</v>
+        <v>0.5433101703084832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6811724501092707</v>
+        <v>0.4066987919743758</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6153395080095162</v>
+        <v>0.5778122677752215</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6925822826894306</v>
+        <v>0.4503234111021722</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8801854906852291</v>
+        <v>0.5032301463718468</v>
       </c>
       <c r="K2" t="n">
-        <v>0.832609330227206</v>
+        <v>0.4785657643089266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.614276769659829</v>
+        <v>0.289273106546855</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7130737914103689</v>
+        <v>0.5247381144238517</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6025280314591686</v>
+        <v>0.5314048658589658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997261845962809</v>
+        <v>0.5033050093109611</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8039783101548948</v>
+        <v>0.4921584478577203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5495581604629513</v>
+        <v>0.5468232898134342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7422397172236503</v>
+        <v>0.7422678341902313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6752304031515988</v>
+        <v>0.4390522083772918</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6216317529457706</v>
+        <v>0.5326081293411467</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7072453351602895</v>
+        <v>0.4676234915526951</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8723821999281702</v>
+        <v>0.5111952662721894</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8294939193610252</v>
+        <v>0.4538160443934041</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5576515540714102</v>
+        <v>0.4200898587933247</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6977425563706122</v>
+        <v>0.479604005985956</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6001398014972007</v>
+        <v>0.5062476165609078</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996862811318381</v>
+        <v>0.5273815855435005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7911582118620857</v>
+        <v>0.4843947967957669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5003994841258441</v>
+        <v>0.4801717541881443</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6951807519280206</v>
+        <v>0.4241243573264781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6834517698987808</v>
+        <v>0.5096550172824017</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6336906583661968</v>
+        <v>0.5014994606256742</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7061230255085226</v>
+        <v>0.4986709573612229</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8712067698809741</v>
+        <v>0.5118335934662465</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8306960865052684</v>
+        <v>0.5081374757826266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5315756761219772</v>
+        <v>0.4404144153783056</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7142195056979084</v>
+        <v>0.4271117762173363</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5936576976215134</v>
+        <v>0.5002868715880318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9997119415141944</v>
+        <v>0.5532960524579965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8036083807553025</v>
+        <v>0.5076002587322122</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5222045622717719</v>
+        <v>0.5702420264175257</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7548979755784061</v>
+        <v>0.4284624035989717</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6837559487865195</v>
+        <v>0.4412324101238129</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6185290672092204</v>
+        <v>0.4983845738942826</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7038899367836027</v>
+        <v>0.5591761866452133</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8583917881588182</v>
+        <v>0.5374419609113487</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8265202302520249</v>
+        <v>0.524741169973087</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6429672305603464</v>
+        <v>0.5495996718914389</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7008983013276489</v>
+        <v>0.3727823184068147</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5831589007683061</v>
+        <v>0.4944818483701795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996790596894175</v>
+        <v>0.5298841146567095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8115490246797114</v>
+        <v>0.4584646595319299</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5234166025447411</v>
+        <v>0.5434143249085468</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7065721401028278</v>
+        <v>0.5516531415715893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6744369320795951</v>
+        <v>0.4899742702510869</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6073740801729129</v>
+        <v>0.4944435302506719</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7275968064140765</v>
+        <v>0.4918892822658514</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8727979780367823</v>
+        <v>0.4838578654905185</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8326974656483384</v>
+        <v>0.5188128446318521</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5624701845803823</v>
+        <v>0.4142994703899855</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7233248520025886</v>
+        <v>0.5560928433268859</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5851376886006494</v>
+        <v>0.4869965324086422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9997336058414562</v>
+        <v>0.5175936199433705</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7935394540640881</v>
+        <v>0.4490747409421622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5044494534172004</v>
+        <v>0.4726385735586739</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7043195694087403</v>
+        <v>0.5350759158097687</v>
       </c>
       <c r="G7" t="n">
-        <v>0.714174736168622</v>
+        <v>0.5235759839563552</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6336819710198814</v>
+        <v>0.527011426487404</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6946741218263284</v>
+        <v>0.5447916331456155</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8717991419174375</v>
+        <v>0.4913808782310807</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8352953453216309</v>
+        <v>0.5017870192873691</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5951180690616857</v>
+        <v>0.5405768613607188</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6899630701182254</v>
+        <v>0.4738344652929665</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5927775065193259</v>
+        <v>0.5289901868568461</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996859100695792</v>
+        <v>0.4894281361830475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7960333868415446</v>
+        <v>0.5044315425883736</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5673117164151871</v>
+        <v>0.4909886273307737</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7014861825192802</v>
+        <v>0.5118292095115682</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6801956629572119</v>
+        <v>0.4124300229059147</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6045237618468257</v>
+        <v>0.4689905368831219</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7125494013227496</v>
+        <v>0.4583684633950121</v>
       </c>
       <c r="J8" t="n">
-        <v>0.87018856058811</v>
+        <v>0.4980105886016817</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8362641298707159</v>
+        <v>0.5134170823434527</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5482528164104069</v>
+        <v>0.5111120025673941</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6978706387317227</v>
+        <v>0.4429193047081847</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6207295952215695</v>
+        <v>0.4681263334375462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996369298514221</v>
+        <v>0.525122583906271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8053467636407901</v>
+        <v>0.5187565223781877</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5243693081276579</v>
+        <v>0.4681711098582474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7323208547557841</v>
+        <v>0.5987005944730077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6905894151138716</v>
+        <v>0.4165708293335108</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5981420372435224</v>
+        <v>0.4566046386192017</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6952746727958098</v>
+        <v>0.3559839098954143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8664052033363585</v>
+        <v>0.5105206584798421</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8329273228266512</v>
+        <v>0.4892479245382261</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5304174617445232</v>
+        <v>0.4737958950765884</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7225454979848589</v>
+        <v>0.4935604926902268</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6223815956857498</v>
+        <v>0.5581696562007208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999736602882777</v>
+        <v>0.523584296484331</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8017820326526885</v>
+        <v>0.5535945296618</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5495364198302523</v>
+        <v>0.5500312097293815</v>
       </c>
       <c r="F10" t="n">
-        <v>0.701157615681234</v>
+        <v>0.5955675610539846</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877722782953761</v>
+        <v>0.4720737407388991</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6200180783676823</v>
+        <v>0.4825620280474649</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6882756115770853</v>
+        <v>0.4500788415124699</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8643706475557761</v>
+        <v>0.5006994139647201</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8480598220933644</v>
+        <v>0.5135266632185218</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5596377197167075</v>
+        <v>0.5486189126054316</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7264413098513541</v>
+        <v>0.4227696558075285</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5930982726797003</v>
+        <v>0.4799703732825982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996897348651697</v>
+        <v>0.5302618882138129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8004397309881014</v>
+        <v>0.4869163824532518</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5257529441087156</v>
+        <v>0.4675184985034919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7111343187660669</v>
+        <v>0.6020106861642295</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6764507131354958</v>
+        <v>0.492125809599858</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6313533278400347</v>
+        <v>0.4736575064450661</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7040148513852549</v>
+        <v>0.5143997425168974</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8683272456861156</v>
+        <v>0.4951733074182054</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8269799446086508</v>
+        <v>0.5287791201418295</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5910207423580786</v>
+        <v>0.3487602311025518</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7025694407623871</v>
+        <v>0.4444275582573455</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5944771292632889</v>
+        <v>0.4689636534654855</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996860527858327</v>
+        <v>0.5048735000742932</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7947219918748669</v>
+        <v>0.4992959506136547</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4856787464351185</v>
+        <v>0.4709552730427735</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7042368251928022</v>
+        <v>0.4283218187660668</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6870044175580861</v>
+        <v>0.4712028614968366</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6162482044341084</v>
+        <v>0.5262244329944965</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7122236624769027</v>
+        <v>0.4343298471440065</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8588176254152193</v>
+        <v>0.4384652756150732</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8322589037927846</v>
+        <v>0.5207856221026186</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6275641260871161</v>
+        <v>0.4388438703465982</v>
       </c>
       <c r="M12" t="n">
-        <v>0.700959308138053</v>
+        <v>0.493597329342696</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6172121151079768</v>
+        <v>0.4995472476871025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996943017852776</v>
+        <v>0.5020368161373329</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7839208141870301</v>
+        <v>0.4650371132505328</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5364143950940709</v>
+        <v>0.6365681450963482</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7083346722365038</v>
+        <v>0.6502550610539846</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6915019517770877</v>
+        <v>0.4621862317394239</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6088835065952161</v>
+        <v>0.4232078074141917</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7127295666135941</v>
+        <v>0.3997168141592921</v>
       </c>
       <c r="J13" t="n">
-        <v>0.869442693407607</v>
+        <v>0.4626994705699159</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8321954462895693</v>
+        <v>0.5466814527794094</v>
       </c>
       <c r="L13" t="n">
-        <v>0.556601133903343</v>
+        <v>0.5410181322207959</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7232347791202114</v>
+        <v>0.4405571543685967</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5944782240283413</v>
+        <v>0.5175369583366258</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9997524729301519</v>
+        <v>0.5214096559040936</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8008334347707009</v>
+        <v>0.3961519805982215</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5585991578610634</v>
+        <v>0.4953839803479381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7064966259640102</v>
+        <v>0.4840536632390745</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6844281077467219</v>
+        <v>0.4620468319821061</v>
       </c>
       <c r="H14" t="n">
-        <v>0.624802199983581</v>
+        <v>0.4984681769147788</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7037592568926436</v>
+        <v>0.5179983909895414</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8732200896828909</v>
+        <v>0.4896167702290152</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8318474876469393</v>
+        <v>0.5290476983633001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5398964716891123</v>
+        <v>0.5104584603862409</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6906798202886293</v>
+        <v>0.4813123057442155</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6023254999244612</v>
+        <v>0.5220925478663281</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996603353169751</v>
+        <v>0.5344495145941157</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8001163993792032</v>
+        <v>0.5324685825170947</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4882022127305381</v>
+        <v>0.4934912612757732</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6845694087403598</v>
+        <v>0.4834009479434447</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6868709742351046</v>
+        <v>0.4066648848888668</v>
       </c>
       <c r="H15" t="n">
-        <v>0.631966654489903</v>
+        <v>0.5086569579288026</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6811795013216927</v>
+        <v>0.4881094127111826</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8671931699131635</v>
+        <v>0.5139342894444936</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8290172830035424</v>
+        <v>0.5199963180825977</v>
       </c>
       <c r="L15" t="n">
-        <v>0.559908351987083</v>
+        <v>0.4540202214732788</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7269009370773842</v>
+        <v>0.3663220904800276</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.595963820204546</v>
+        <v>0.4271688231453465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996689553786788</v>
+        <v>0.5084411170687555</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7986433386080765</v>
+        <v>0.5065859108549924</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4978208897975093</v>
+        <v>0.4173387096774194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6866910347043701</v>
+        <v>0.5932126787722963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6778219893029676</v>
+        <v>0.4140683422690343</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6221816619675362</v>
+        <v>0.5424661291207283</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6986752326054015</v>
+        <v>0.4934921145799807</v>
       </c>
       <c r="J16" t="n">
-        <v>0.86740552969982</v>
+        <v>0.5294734743714336</v>
       </c>
       <c r="K16" t="n">
-        <v>0.829385689063875</v>
+        <v>0.5152071234654024</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6493809860188615</v>
+        <v>0.4884649333975285</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6978211305871538</v>
+        <v>0.4897117067329833</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5950650180964663</v>
+        <v>0.393968216085693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996850823153097</v>
+        <v>0.5187305848061223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8067570600407779</v>
+        <v>0.575877122069523</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5189652079996211</v>
+        <v>0.5083775372897823</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6970742287917737</v>
+        <v>0.5254759800771208</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6608284089602025</v>
+        <v>0.4927084422393938</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6224318575414202</v>
+        <v>0.4714968506549596</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7229192350229795</v>
+        <v>0.4282284794851167</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8713442449007572</v>
+        <v>0.431255060728745</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8277988989418107</v>
+        <v>0.5731678332085715</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5522251477010017</v>
+        <v>0.5871911103979461</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7152419287351022</v>
+        <v>0.4486013583515598</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5840604397890169</v>
+        <v>0.4575886903174179</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9997430251141787</v>
+        <v>0.5161324031167071</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7953058907215239</v>
+        <v>0.4981876975086352</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5152413481987498</v>
+        <v>0.4857568877643795</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6799453727506426</v>
+        <v>0.4380522975578406</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6897887551759834</v>
+        <v>0.4454075700404576</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6246927394200067</v>
+        <v>0.4440672481826484</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7141973131830065</v>
+        <v>0.5008012872083668</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8645889683189002</v>
+        <v>0.4570887573964497</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8258398248008844</v>
+        <v>0.4866223667715721</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5563213276577007</v>
+        <v>0.4195884146341464</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7192013026710762</v>
+        <v>0.4299343847127892</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5891987195627947</v>
+        <v>0.4331279996976682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9995970263869793</v>
+        <v>0.5011932055674132</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7831267497945893</v>
+        <v>0.5098611009039464</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5156179270151431</v>
+        <v>0.5097958279639175</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7185001606683805</v>
+        <v>0.5732647814910026</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6803313528007822</v>
+        <v>0.4153732586910996</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6163624430381562</v>
+        <v>0.526957928802589</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7229336482462471</v>
+        <v>0.4487916331456154</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8751700741098398</v>
+        <v>0.4801710005791638</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8277012448951965</v>
+        <v>0.4334186603080538</v>
       </c>
       <c r="L19" t="n">
-        <v>0.582846730395215</v>
+        <v>0.5416287736942527</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7076649467643712</v>
+        <v>0.4842362150339588</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6128379813408246</v>
+        <v>0.5270981994083918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9997069464453263</v>
+        <v>0.523698166553028</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8094592564133776</v>
+        <v>0.4768296063574201</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5034641368852351</v>
+        <v>0.565258537371134</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6868525064267352</v>
+        <v>0.5562339331619538</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6851198114360477</v>
+        <v>0.4554876684401571</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6246171595070625</v>
+        <v>0.4715722761596548</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6854054583837397</v>
+        <v>0.3773901850362027</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8705242380754391</v>
+        <v>0.5399279480912134</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8355068703323482</v>
+        <v>0.5491163398234433</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6610571630398884</v>
+        <v>0.4770413167139214</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7152042386637529</v>
+        <v>0.4189800851847588</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,1270 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5762651652328894</v>
+        <v>0.5048090761659377</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996693549841882</v>
+        <v>0.5083245847099805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7943392243084508</v>
+        <v>0.4516258967423262</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5414341518940361</v>
+        <v>0.5471919687396076</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7214532455012852</v>
+        <v>0.5548770689378113</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6963050127961812</v>
+        <v>0.4542821653548297</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6258038510137481</v>
+        <v>0.5115709505786847</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7119209847882841</v>
+        <v>0.5240296105568072</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8758209382278911</v>
+        <v>0.4981934165607635</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8381819566345524</v>
+        <v>0.5325070314895205</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6206503889765513</v>
+        <v>0.511916225324988</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7025202520252025</v>
+        <v>0.4925854287556415</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4738281085482445</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5315586729415556</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5496670831189828</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4754388790465454</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4931314267352186</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4140964836411216</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5257473010510614</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4788093322606597</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.548962939894114</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4543960230213399</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4280527920410783</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4936479797398411</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4747406325897432</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5177394291776776</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4926552509737635</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5399965710545046</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5447662275064268</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5216877508799609</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4809352882946372</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4049621882542237</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.463850513858611</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5427211999544144</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3330592105263158</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.4690410958904109</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4836208347791432</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5085006783601044</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4443036672301022</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4938335615335052</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4163620661953727</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4536036421354775</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4627588996763754</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4336540627514079</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4861344249099351</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4638339279922154</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.451871467037572</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4314078508115575</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4708644969784005</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.51502008695785</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4727204999075956</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.525964481314433</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.565904161311054</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5296355228481926</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4982038834951456</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.500897827835881</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.4942525350688616</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4647653654303022</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3111414254890422</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4575112236675492</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4864924634404904</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4986409196246754</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5175320475126426</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5085789408047888</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5520347902940704</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4529544849614054</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.475058965498327</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4903701319600901</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5106326779796168</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4657445380988985</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7059861980420478</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4237588652482269</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5158182532885962</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5124659952035704</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4911207466745058</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4457888912556695</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6169665809768637</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4622686043232934</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4856051486375689</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4077425583266291</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4827405792587979</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4828084079868322</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.4087171052631579</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4290180729826177</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4703499880669933</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5238113422920379</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5182479606085103</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5450672540900565</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4948987789203085</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5235949930141712</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5357890089640478</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4149637972646822</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4797807536592962</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.488423876357707</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5490211810012837</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4540163462645331</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5569191022121751</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5091078696715404</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4353465128242816</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4996425982603093</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.553673280848329</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4341763850474751</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.522348975188781</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.4513724859211585</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5780545984627617</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4805187120302268</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4075143993295173</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4461747438701508</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5216459214418475</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5234784112070365</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4966532295324339</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6095008456829897</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5882370661953727</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.452550842822336</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4191828478964401</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4493065164923572</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5373928792296139</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4476181500994995</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3211184222257887</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.4435731552895131</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5214863906654779</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5173354928344776</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5020580971421851</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5469321582973062</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4834183673469388</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5032162186141425</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4937249739454775</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4796266495011264</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5139268894370935</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5474653313131224</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6649414219226448</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4375333885972184</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5319769482388286</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5205018198381101</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5821591827735724</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4707422627923046</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5394541291773779</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5089516821432079</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5065386271213863</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5214867256637169</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5321706633447524</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5102856343196553</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.4551107188703466</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5094739265569241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5150285690219145</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5300925958070819</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.512930109502462</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4763792413717861</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5659744537275064</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4223780964963138</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4980599376437909</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4237232502011263</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.4739831828090938</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5055623252185043</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.4501564505776636</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.477071486128698</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4419883808417878</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5150999348718753</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5171808627912103</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5080591575386598</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5926654884318766</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3899993346829764</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5050134843581446</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4269670152855994</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5137134218766872</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5042276301601634</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.4594233135398277</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4217934845170945</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4780929738792253</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5024863946097797</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4345661615228239</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4837558392396907</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.4740219312339332</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4774812291780617</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4816046386192017</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.4769879324215607</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5182289365962836</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5180041377738427</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.4960323828884253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.4909681132727063</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.465511552313622</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5295790433771704</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5567505586263671</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5209926837379448</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.4182669130644384</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3976070066035464</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4914541166145576</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.4476279369166399</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5115696095287932</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5429465162468508</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4539399775316963</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4925946394031501</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4208841656020553</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5146718806197309</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4878371426471669</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5019820344037531</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5276450032133676</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.4839801165255244</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.52581585449121</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5567497988736927</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5058860168171909</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5134820553942661</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.4612082798459564</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4307355819039945</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4188590641714984</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4959857329135879</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5279341515396487</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5632562513313141</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4667617287917738</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5602254474256984</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.4911991093537056</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3894513274336284</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5011522890065401</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5390765400496182</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.4923780487804879</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4444111891331875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4831398524758564</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5193915866683145</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5535033438671272</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5164505476804124</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4655767994858612</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.4297314336948223</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4664077669902913</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.512611423974256</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5054407044202962</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5334002507210422</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4099930455250629</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.4270104754230459</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4911275942982984</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5062781290314518</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5202769820735539</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5389668572809277</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.497479514781491</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.4854836905176271</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5916909385113268</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.4949509251810136</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.4620819467758243</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4758790577798038</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6292908218762816</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.4294969494647174</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5837867437991</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5265547677736198</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4774314947665529</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5116706850681743</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5846657560662061</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4153643357795607</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.4893505567440075</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.4789571934341809</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5355585457626274</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5510666092002541</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5348459316321618</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4764023210831722</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4871158624756075</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5184379248429773</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5829323142500183</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4733815117493337</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5740279562982005</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4900471741451468</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.4769537044907987</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5197103781174577</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.4651635004671442</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5113629548347257</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.597681322207959</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4527178542649937</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5164886074883127</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5047356756313888</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4912383332108474</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6223328259186717</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4719734093830334</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.434138366931843</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.518837114284069</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.5305100563153661</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4762055434444099</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.4878803552173646</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3477414955070603</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.379993093127662</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5436886532839067</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4880853025680477</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4847710737120599</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5053106878221649</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4714311535989717</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.4429649061110952</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5167313915857605</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4452131938857603</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4443119239037606</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5075457390572539</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.4374899695073022</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.436809024979855</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5245455576130911</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5223442236630335</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4869045693956755</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5149454333118557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.4517994858611825</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.4542072746258267</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4446521035598706</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4977827835880934</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5193308203512285</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4910340928018515</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3702812104352788</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5113341775066191</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4758563314822486</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.509079088250825</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4575149947077502</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5475037412703692</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5765105254700306</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.4697485328973219</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.4753551642806209</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.6154618603154168</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4878996287159553</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.4952590209678351</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.4639905312148933</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.4844155844155844</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4725365360587385</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5152440082819645</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4547100756963328</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5089230513458611</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5588247107969152</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4330706915178416</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5419286550637684</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4643282381335479</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4731460604173155</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.4854583943259639</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5851652759948652</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.4705329803154138</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.521553115918631</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5117046627015812</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4731476445946939</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4174741140591961</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.547517673521851</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.4220105880452035</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.4925454989182267</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4479420756234916</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4418835253815011</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5352653172147172</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.4280728498074454</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.412897432945781</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5221269037451344</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5159279230238335</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5150731241272875</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.4643000966494846</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5308182037275064</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.4817877385240734</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.4737864077669903</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.4787127916331456</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.505629668894975</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.5279387399076014</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.2214019508193798</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.4754184413491424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5600798430623456</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5138904125568134</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5423096470153391</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5382772229381443</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4838929948586118</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.4538560986524787</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.4932497303128371</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4645341914722446</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.4931432890616564</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4998685029499171</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.4968883182653043</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.4640267065730401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4441585520819439</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5232299430417658</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4302040456309538</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5548511805786498</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5649104129840913</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.4862827483934751</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.5265701278042894</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.503109108464757</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4995639281353567</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.5072158856122172</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.4077395281656235</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.4901538178133923</v>
       </c>
     </row>
   </sheetData>
